--- a/biology/Botanique/William_George_Maton/William_George_Maton.xlsx
+++ b/biology/Botanique/William_George_Maton/William_George_Maton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William George Maton est un médecin et un naturaliste britannique, né le 31 janvier 1774 à Salisbury et mort le 30 mars 1835 à Spring Gardens.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est un marchand de vin réputé. Passionné très tôt par la nature, à dix ans il attire l’attention du révérend Thomas Rackett (1756-1840). Il rencontre bientôt Charles Hatchett (1765-1847), futur chimiste, avec lequel il nouera une amitié qui durera toute leur vie. C’est grâce à lui que Maton rencontre le docteur Richard Pulteney (1730-1801), qui le persuade d’abandonner l’idée d’entrer dans les ordres pour devenir médecin.
 Il entre au Queen's College d’Oxford en juillet 1790. Il suit alors les cours des botanistes Aylmer Bourke Lambert (1761-1842) et John Sibthorp (1758-1796) et devient l’assistant de ce dernier. Il l’accompagne durant ses herborisations qui permettront à Sibthorp de faire paraître sa Flora Oxoniensis.
